--- a/tyrsgv.xlsx
+++ b/tyrsgv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DF84C-CFA6-4B59-9C64-C541388CEECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236EB1F1-5AAC-499B-A608-5058E1815130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>testinggg</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>31</v>
       </c>
@@ -902,7 +905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>35</v>
       </c>
@@ -913,7 +916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>38</v>
       </c>
@@ -924,7 +927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>41</v>
       </c>
@@ -935,7 +938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -960,8 +963,11 @@
       <c r="I21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>19</v>
       </c>
@@ -972,7 +978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>23</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>27</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>31</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>35</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>44</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>47</v>
       </c>
